--- a/DbLayouts/L6-共同作業/JobMain.xlsx
+++ b/DbLayouts/L6-共同作業/JobMain.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="V:\SKL\DB\GenTables\L6-共同作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCF4310B-7E69-4A14-8EC4-BDB3765C2C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9265FDD-7D7B-47E3-A897-12995B9A3544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="228" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="149">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="3" type="noConversion"/>
@@ -540,6 +540,38 @@
   </si>
   <si>
     <t>Usp_L7_LoanIfrsJp_Upd</t>
+  </si>
+  <si>
+    <t>int TYYMM, String EmpNo</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usp_L9_MonthlyLM052AssetClass_Ins</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月底日日終批次)維護 MonthlyLM052AssetClass</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usp_L9_MonthlyLM052LoanAsset_Ins</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月底日日終批次)維護 MonthlyLM052LoanAsset</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>Usp_L9_MonthlyLM052Ovdu_Ins</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>(月底日日終批次)維護 MonthlyLM052Ovdu</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>V</t>
+    <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1512,10 +1544,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="C43" sqref="C43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1981,7 +2013,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
         <v>86</v>
       </c>
@@ -1995,7 +2027,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
         <v>88</v>
       </c>
@@ -2009,7 +2041,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
         <v>90</v>
       </c>
@@ -2023,7 +2055,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>132</v>
       </c>
@@ -2037,7 +2069,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>133</v>
       </c>
@@ -2051,7 +2083,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>134</v>
       </c>
@@ -2065,7 +2097,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>135</v>
       </c>
@@ -2079,7 +2111,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>136</v>
       </c>
@@ -2093,7 +2125,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>137</v>
       </c>
@@ -2107,7 +2139,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>138</v>
       </c>
@@ -2121,7 +2153,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>139</v>
       </c>
@@ -2135,7 +2167,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>140</v>
       </c>
@@ -2147,6 +2179,48 @@
       </c>
       <c r="F44" s="30" t="s">
         <v>51</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>142</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C45" s="30" t="s">
+        <v>143</v>
+      </c>
+      <c r="G45" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>144</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C46" s="30" t="s">
+        <v>145</v>
+      </c>
+      <c r="G46" s="29" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>146</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>147</v>
+      </c>
+      <c r="G47" s="29" t="s">
+        <v>148</v>
       </c>
     </row>
   </sheetData>

--- a/DbLayouts/L6-共同作業/JobMain.xlsx
+++ b/DbLayouts/L6-共同作業/JobMain.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L6-共同作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9265FDD-7D7B-47E3-A897-12995B9A3544}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A400734-8B4B-48E8-8E48-AF51EFAE9EA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="16740" windowHeight="11892" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -289,10 +289,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>int tbsdyf,  String empNo, int l6bsdyf, int l7bsdyf</t>
-    <phoneticPr fontId="11" type="noConversion"/>
-  </si>
-  <si>
     <t>Usp_L9_MonthlyLM032_Upd</t>
   </si>
   <si>
@@ -571,6 +567,10 @@
   </si>
   <si>
     <t>V</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>int tbsdyf,  String empNo,String txtNo, int l6bsdyf, int l7bsdyf</t>
     <phoneticPr fontId="11" type="noConversion"/>
   </si>
 </sst>
@@ -1546,8 +1546,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="C43" sqref="C43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -1584,7 +1584,7 @@
         <v>33</v>
       </c>
       <c r="B2" t="s">
-        <v>68</v>
+        <v>148</v>
       </c>
       <c r="C2" t="s">
         <v>38</v>
@@ -1623,13 +1623,13 @@
     </row>
     <row r="5" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A5" s="30" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>72</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C5" s="30" t="s">
-        <v>73</v>
       </c>
       <c r="D5" s="30" t="s">
         <v>51</v>
@@ -1637,13 +1637,13 @@
     </row>
     <row r="6" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A6" s="30" t="s">
+        <v>115</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="30" t="s">
         <v>116</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="30" t="s">
-        <v>117</v>
       </c>
       <c r="D6" s="30" t="s">
         <v>51</v>
@@ -1679,13 +1679,13 @@
     </row>
     <row r="9" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A9" s="30" t="s">
+        <v>73</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>74</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C9" s="30" t="s">
-        <v>75</v>
       </c>
       <c r="E9" s="30" t="s">
         <v>51</v>
@@ -1693,13 +1693,13 @@
     </row>
     <row r="10" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A10" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>78</v>
-      </c>
-      <c r="B10" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C10" s="30" t="s">
-        <v>79</v>
       </c>
       <c r="E10" s="30" t="s">
         <v>51</v>
@@ -1707,13 +1707,13 @@
     </row>
     <row r="11" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A11" s="30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>118</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C11" s="30" t="s">
-        <v>119</v>
       </c>
       <c r="E11" s="30" t="s">
         <v>51</v>
@@ -1721,13 +1721,13 @@
     </row>
     <row r="12" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A12" s="30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>76</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>77</v>
       </c>
       <c r="E12" s="30" t="s">
         <v>51</v>
@@ -1735,13 +1735,13 @@
     </row>
     <row r="13" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="30" t="s">
+        <v>119</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>120</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C13" s="30" t="s">
-        <v>121</v>
       </c>
       <c r="E13" s="30" t="s">
         <v>51</v>
@@ -1791,13 +1791,13 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B17" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="C17" s="29" t="s">
         <v>70</v>
-      </c>
-      <c r="C17" s="29" t="s">
-        <v>71</v>
       </c>
       <c r="F17" s="29" t="s">
         <v>51</v>
@@ -1805,13 +1805,13 @@
     </row>
     <row r="18" spans="1:6" s="29" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="29" t="s">
         <v>114</v>
-      </c>
-      <c r="B18" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="29" t="s">
-        <v>115</v>
       </c>
       <c r="F18" s="29" t="s">
         <v>51</v>
@@ -1819,13 +1819,13 @@
     </row>
     <row r="19" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>92</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>93</v>
       </c>
       <c r="F19" s="30" t="s">
         <v>51</v>
@@ -1833,13 +1833,13 @@
     </row>
     <row r="20" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="30" t="s">
+        <v>93</v>
+      </c>
+      <c r="B20" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>94</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>95</v>
       </c>
       <c r="F20" s="30" t="s">
         <v>51</v>
@@ -1847,13 +1847,13 @@
     </row>
     <row r="21" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="30" t="s">
+        <v>95</v>
+      </c>
+      <c r="B21" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>96</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>97</v>
       </c>
       <c r="F21" s="30" t="s">
         <v>51</v>
@@ -1861,13 +1861,13 @@
     </row>
     <row r="22" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="30" t="s">
+        <v>97</v>
+      </c>
+      <c r="B22" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>98</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>99</v>
       </c>
       <c r="F22" s="30" t="s">
         <v>51</v>
@@ -1875,13 +1875,13 @@
     </row>
     <row r="23" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="30" t="s">
+        <v>99</v>
+      </c>
+      <c r="B23" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>100</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>101</v>
       </c>
       <c r="F23" s="30" t="s">
         <v>51</v>
@@ -1889,13 +1889,13 @@
     </row>
     <row r="24" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>102</v>
-      </c>
-      <c r="B24" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C24" s="30" t="s">
-        <v>103</v>
       </c>
       <c r="F24" s="30" t="s">
         <v>51</v>
@@ -1903,13 +1903,13 @@
     </row>
     <row r="25" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="30" t="s">
+        <v>103</v>
+      </c>
+      <c r="B25" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="30" t="s">
         <v>104</v>
-      </c>
-      <c r="B25" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C25" s="30" t="s">
-        <v>105</v>
       </c>
       <c r="F25" s="30" t="s">
         <v>51</v>
@@ -1917,13 +1917,13 @@
     </row>
     <row r="26" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="30" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" s="30" t="s">
         <v>106</v>
-      </c>
-      <c r="B26" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C26" s="30" t="s">
-        <v>107</v>
       </c>
       <c r="F26" s="30" t="s">
         <v>51</v>
@@ -1931,13 +1931,13 @@
     </row>
     <row r="27" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="30" t="s">
+        <v>107</v>
+      </c>
+      <c r="B27" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" s="30" t="s">
         <v>108</v>
-      </c>
-      <c r="B27" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C27" s="30" t="s">
-        <v>109</v>
       </c>
       <c r="F27" s="30" t="s">
         <v>51</v>
@@ -1945,13 +1945,13 @@
     </row>
     <row r="28" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
+        <v>109</v>
+      </c>
+      <c r="B28" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" s="30" t="s">
         <v>110</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>111</v>
       </c>
       <c r="F28" s="30" t="s">
         <v>51</v>
@@ -1959,13 +1959,13 @@
     </row>
     <row r="29" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="B29" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" s="30" t="s">
         <v>112</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>113</v>
       </c>
       <c r="F29" s="30" t="s">
         <v>51</v>
@@ -1973,13 +1973,13 @@
     </row>
     <row r="30" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="30" t="s">
+        <v>79</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="30" t="s">
         <v>80</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>81</v>
       </c>
       <c r="F30" s="30" t="s">
         <v>51</v>
@@ -1987,13 +1987,13 @@
     </row>
     <row r="31" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="30" t="s">
+        <v>81</v>
+      </c>
+      <c r="B31" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" s="30" t="s">
         <v>82</v>
-      </c>
-      <c r="B31" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C31" s="30" t="s">
-        <v>83</v>
       </c>
       <c r="F31" s="30" t="s">
         <v>51</v>
@@ -2001,13 +2001,13 @@
     </row>
     <row r="32" spans="1:6" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="B32" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" s="30" t="s">
         <v>84</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>85</v>
       </c>
       <c r="F32" s="30" t="s">
         <v>51</v>
@@ -2015,13 +2015,13 @@
     </row>
     <row r="33" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="30" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="30" t="s">
         <v>86</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>87</v>
       </c>
       <c r="F33" s="30" t="s">
         <v>51</v>
@@ -2029,13 +2029,13 @@
     </row>
     <row r="34" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="30" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="30" t="s">
         <v>88</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>122</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>89</v>
       </c>
       <c r="F34" s="30" t="s">
         <v>51</v>
@@ -2043,13 +2043,13 @@
     </row>
     <row r="35" spans="1:7" s="30" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="30" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" s="30" t="s">
         <v>90</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>91</v>
       </c>
       <c r="F35" s="30" t="s">
         <v>51</v>
@@ -2057,13 +2057,13 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B36" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="30" t="s">
         <v>122</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>123</v>
       </c>
       <c r="F36" s="30" t="s">
         <v>51</v>
@@ -2071,13 +2071,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B37" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="F37" s="30" t="s">
         <v>51</v>
@@ -2085,13 +2085,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B38" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C38" s="30" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="F38" s="30" t="s">
         <v>51</v>
@@ -2099,13 +2099,13 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B39" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="F39" s="30" t="s">
         <v>51</v>
@@ -2113,13 +2113,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B40" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F40" s="30" t="s">
         <v>51</v>
@@ -2127,13 +2127,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B41" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F41" s="30" t="s">
         <v>51</v>
@@ -2141,13 +2141,13 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B42" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F42" s="30" t="s">
         <v>51</v>
@@ -2155,13 +2155,13 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B43" s="30" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F43" s="30" t="s">
         <v>51</v>
@@ -2169,13 +2169,13 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B44" s="30" t="s">
         <v>36</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="F44" s="30" t="s">
         <v>51</v>
@@ -2183,44 +2183,44 @@
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>141</v>
+      </c>
+      <c r="B45" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C45" s="30" t="s">
         <v>142</v>
       </c>
-      <c r="B45" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C45" s="30" t="s">
-        <v>143</v>
-      </c>
       <c r="G45" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>143</v>
+      </c>
+      <c r="B46" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C46" s="30" t="s">
         <v>144</v>
       </c>
-      <c r="B46" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C46" s="30" t="s">
-        <v>145</v>
-      </c>
       <c r="G46" s="29" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>145</v>
+      </c>
+      <c r="B47" s="30" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="30" t="s">
         <v>146</v>
       </c>
-      <c r="B47" s="30" t="s">
-        <v>141</v>
-      </c>
-      <c r="C47" s="30" t="s">
+      <c r="G47" s="29" t="s">
         <v>147</v>
-      </c>
-      <c r="G47" s="29" t="s">
-        <v>148</v>
       </c>
     </row>
   </sheetData>
